--- a/server/שלישיSchedule.xlsx
+++ b/server/שלישיSchedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,34 +501,34 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9:45</t>
+          <t>7:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>אברהם</t>
+          <t>דני</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>אהרון</t>
+          <t>דנון</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1234567</v>
+        <v>3456712</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>א</t>
+          <t>ד</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>52-1234567</t>
+          <t>055-1234567</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
         <v>12</v>
@@ -538,124 +538,10 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>a@a.com</t>
+          <t>d@d.com</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>פסיכולוג1שםפרטי</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>שלישי</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>11:45</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>גדי</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>גדות</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2345671</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ג</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>054-1234567</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>60</v>
-      </c>
-      <c r="J3" t="n">
-        <v>12</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>c@c.com</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>פסיכולוג1שםפרטי</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>שלישי</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>7:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>דני</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>דנון</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3456712</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>ד</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>055-1234567</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>80</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>d@d.com</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
